--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(C000)共通ヘッダー.xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(C000)共通ヘッダー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d_yoshiara\Desktop\dakokusamurai-git-repository\設計書_打刻侍\50_単体テスト\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9C3F201-1A7C-46FC-90A9-0E576F613C07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9148E3-A9C3-4C7B-8B50-0D49AED4097D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ケース3</t>
     <phoneticPr fontId="1"/>
@@ -55,7 +55,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ケース9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ケース8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users_id = 1がログイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -124,21 +132,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>231688</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41494</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53770E5B-2F8C-489F-06FC-F72A78780E76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED06532-6E0F-2E64-F74A-AE5DB64429DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -147,21 +155,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="952500"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="938382"/>
+          <a:ext cx="7777991" cy="2165451"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -174,21 +176,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24769</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229209</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>212868</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2F59D7-DCDC-44B6-88B9-05A4627749EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3073A705-07B7-9936-D6A7-83C6F817B5C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -197,21 +199,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5715000"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:off x="0" y="3322672"/>
+          <a:ext cx="7777515" cy="1130357"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -224,21 +220,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>83591</xdr:rowOff>
+      <xdr:colOff>229685</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>228898</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{937B3C49-B0AD-C847-C920-487EC370EF08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B01BAA15-9CD8-2CD2-8037-36C6A0167236}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -247,13 +243,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -261,7 +251,359 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="10477500"/>
-          <a:ext cx="7772400" cy="4369841"/>
+          <a:ext cx="7773485" cy="2133898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23F2FFE2-E74D-649F-9CFB-67AEA07CFD51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5276850"/>
+          <a:ext cx="7686675" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>164140</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>20543</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>426410</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>3930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{551938BA-3229-9697-AE3A-5A04C8CD25E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850350" y="962801"/>
+          <a:ext cx="1634689" cy="218952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>587005</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>354418</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>116294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A84AAA2-7FCD-44F0-A5EF-8FB9CDF637EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3333749" y="4308401"/>
+          <a:ext cx="1140785" cy="332268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>132907</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>564856</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>204898</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA7892BF-6194-4CFB-AB39-2559CD14EC6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="819593" y="5260901"/>
+          <a:ext cx="1805321" cy="182747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182748</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>365494</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>215975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{122BD2AC-A055-4DA9-82F1-BA41C1E244A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="869434" y="7891353"/>
+          <a:ext cx="1556118" cy="182747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409678</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>81936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57388</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>156402</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{488679BE-D1DC-4967-801E-C7641739A1A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7957984" y="3615404"/>
+          <a:ext cx="4451178" cy="781159"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -536,34 +878,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D39DF3F-6E0D-40E7-870F-D07023DE9C88}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
         <v>4</v>
       </c>
     </row>
